--- a/datasets/1. Originales/Contaminación/Consolidados por Ciudad 2018-2023.xlsx
+++ b/datasets/1. Originales/Contaminación/Consolidados por Ciudad 2018-2023.xlsx
@@ -5,30 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documentos\Mai\Henry\Cursado\P.G. Final\DataSets\Contaminación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\ProyectoFinalSH\datasets\1. Originales\Contaminación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C5093-94C0-4A1C-91B2-8EC704C6D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A46595-F2CF-49F7-BEE3-735B6E1EB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{DE6E5061-9990-4EA6-A085-BC71329563CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE6E5061-9990-4EA6-A085-BC71329563CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidados por Ciudad 2018-23" sheetId="1" r:id="rId1"/>
     <sheet name="Diccionario" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consolidados por Ciudad 2018-23'!$A$1:$O$163</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="59">
   <si>
     <t># Days with AQI</t>
   </si>
@@ -153,9 +149,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Diccionario:</t>
-  </si>
-  <si>
     <t>Año de analisis</t>
   </si>
   <si>
@@ -201,16 +194,13 @@
     <t># Days PM205</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
+    <t>Unhealthy T</t>
   </si>
   <si>
-    <t>Total general</t>
+    <t>Campo</t>
   </si>
   <si>
-    <t>Promedio de AQI Maximum</t>
-  </si>
-  <si>
-    <t>Unhealthy T</t>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -353,13 +343,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.45"/>
-      <color rgb="FF1B1B1B"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,12 +530,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -706,7 +691,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -714,17 +699,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -782,3072 +762,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Flor Pedraza" refreshedDate="45598.532299999999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="162" xr:uid="{8128A310-E9C2-4FF4-B574-6684230FD0C7}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O163" sheet="Consolidados por Ciudad 2018-23"/>
-  </cacheSource>
-  <cacheFields count="16">
-    <cacheField name="Año" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2018" maxValue="2023" count="6">
-        <n v="2023"/>
-        <n v="2022"/>
-        <n v="2021"/>
-        <n v="2020"/>
-        <n v="2019"/>
-        <n v="2018"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Code " numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="36001" maxValue="36119"/>
-    </cacheField>
-    <cacheField name="City" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="# Days with AQI" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="205" maxValue="366"/>
-    </cacheField>
-    <cacheField name="Good" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="176" maxValue="359"/>
-    </cacheField>
-    <cacheField name="Moderate" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="178"/>
-    </cacheField>
-    <cacheField name="Unhealthy for Sensitive Groups" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11"/>
-    </cacheField>
-    <cacheField name="Unhealthy" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Very Unhealthy" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Hazardous" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="AQI Maximum" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54" maxValue="278"/>
-    </cacheField>
-    <cacheField name="# Days CO" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
-    </cacheField>
-    <cacheField name="# Days NO2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="47"/>
-    </cacheField>
-    <cacheField name="# Days O3" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="365"/>
-    </cacheField>
-    <cacheField name="# Days PM205" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="365"/>
-    </cacheField>
-    <cacheField name="# Days PM10" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="162">
-  <r>
-    <x v="0"/>
-    <n v="36001"/>
-    <s v="Albany County, NY"/>
-    <n v="365"/>
-    <n v="245"/>
-    <n v="113"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="186"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="257"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36005"/>
-    <s v="Bronx County, NY"/>
-    <n v="365"/>
-    <n v="197"/>
-    <n v="159"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="253"/>
-    <n v="0"/>
-    <n v="23"/>
-    <n v="101"/>
-    <n v="241"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36013"/>
-    <s v="Chautauqua County, NY"/>
-    <n v="363"/>
-    <n v="322"/>
-    <n v="36"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="133"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="334"/>
-    <n v="29"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36027"/>
-    <s v="Dutchess County, NY"/>
-    <n v="347"/>
-    <n v="333"/>
-    <n v="13"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="347"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36029"/>
-    <s v="Erie County, NY"/>
-    <n v="365"/>
-    <n v="198"/>
-    <n v="159"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="176"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="79"/>
-    <n v="283"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36031"/>
-    <s v="Essex County, NY"/>
-    <n v="365"/>
-    <n v="296"/>
-    <n v="59"/>
-    <n v="8"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="161"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="312"/>
-    <n v="53"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36041"/>
-    <s v="Hamilton County, NY"/>
-    <n v="354"/>
-    <n v="337"/>
-    <n v="17"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="354"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36045"/>
-    <s v="Jefferson County, NY"/>
-    <n v="362"/>
-    <n v="344"/>
-    <n v="17"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="362"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36047"/>
-    <s v="Kings County, NY"/>
-    <n v="364"/>
-    <n v="207"/>
-    <n v="152"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="249"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="364"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36055"/>
-    <s v="Monroe County, NY"/>
-    <n v="365"/>
-    <n v="237"/>
-    <n v="120"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="176"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="121"/>
-    <n v="244"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36059"/>
-    <s v="Nassau County, NY"/>
-    <n v="365"/>
-    <n v="275"/>
-    <n v="86"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="197"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36061"/>
-    <s v="New York County, NY"/>
-    <n v="365"/>
-    <n v="194"/>
-    <n v="162"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="208"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="130"/>
-    <n v="235"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36063"/>
-    <s v="Niagara County, NY"/>
-    <n v="356"/>
-    <n v="335"/>
-    <n v="21"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="97"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="356"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36065"/>
-    <s v="Oneida County, NY"/>
-    <n v="351"/>
-    <n v="275"/>
-    <n v="70"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="190"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="351"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36067"/>
-    <s v="Onondaga County, NY"/>
-    <n v="361"/>
-    <n v="273"/>
-    <n v="80"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="258"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="170"/>
-    <n v="191"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36071"/>
-    <s v="Orange County, NY"/>
-    <n v="357"/>
-    <n v="270"/>
-    <n v="81"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="185"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="357"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36075"/>
-    <s v="Oswego County, NY"/>
-    <n v="356"/>
-    <n v="341"/>
-    <n v="14"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="356"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36079"/>
-    <s v="Putnam County, NY"/>
-    <n v="350"/>
-    <n v="334"/>
-    <n v="13"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="140"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="350"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36081"/>
-    <s v="Queens County, NY"/>
-    <n v="365"/>
-    <n v="188"/>
-    <n v="165"/>
-    <n v="7"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="278"/>
-    <n v="0"/>
-    <n v="21"/>
-    <n v="102"/>
-    <n v="242"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36085"/>
-    <s v="Richmond County, NY"/>
-    <n v="364"/>
-    <n v="255"/>
-    <n v="101"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="227"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="161"/>
-    <n v="203"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36087"/>
-    <s v="Rockland County, NY"/>
-    <n v="363"/>
-    <n v="288"/>
-    <n v="66"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="197"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="216"/>
-    <n v="147"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36091"/>
-    <s v="Saratoga County, NY"/>
-    <n v="365"/>
-    <n v="352"/>
-    <n v="12"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="122"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36101"/>
-    <s v="Steuben County, NY"/>
-    <n v="365"/>
-    <n v="274"/>
-    <n v="83"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="256"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="205"/>
-    <n v="160"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36103"/>
-    <s v="Suffolk County, NY"/>
-    <n v="365"/>
-    <n v="278"/>
-    <n v="74"/>
-    <n v="11"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="195"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="274"/>
-    <n v="91"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36109"/>
-    <s v="Tompkins County, NY"/>
-    <n v="357"/>
-    <n v="332"/>
-    <n v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="357"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36117"/>
-    <s v="Wayne County, NY"/>
-    <n v="348"/>
-    <n v="328"/>
-    <n v="17"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="112"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="348"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="36119"/>
-    <s v="Westchester County, NY"/>
-    <n v="365"/>
-    <n v="287"/>
-    <n v="71"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="198"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="216"/>
-    <n v="149"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36001"/>
-    <s v="Albany County, NY"/>
-    <n v="365"/>
-    <n v="276"/>
-    <n v="89"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="88"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="163"/>
-    <n v="202"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36005"/>
-    <s v="Bronx County, NY"/>
-    <n v="365"/>
-    <n v="225"/>
-    <n v="139"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="25"/>
-    <n v="129"/>
-    <n v="211"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36013"/>
-    <s v="Chautauqua County, NY"/>
-    <n v="355"/>
-    <n v="322"/>
-    <n v="29"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="140"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="330"/>
-    <n v="25"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36027"/>
-    <s v="Dutchess County, NY"/>
-    <n v="341"/>
-    <n v="321"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="97"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="341"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36029"/>
-    <s v="Erie County, NY"/>
-    <n v="365"/>
-    <n v="238"/>
-    <n v="125"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="150"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="107"/>
-    <n v="254"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36031"/>
-    <s v="Essex County, NY"/>
-    <n v="365"/>
-    <n v="342"/>
-    <n v="21"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="115"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="338"/>
-    <n v="27"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36041"/>
-    <s v="Hamilton County, NY"/>
-    <n v="350"/>
-    <n v="345"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="71"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="350"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36045"/>
-    <s v="Jefferson County, NY"/>
-    <n v="360"/>
-    <n v="352"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="84"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="360"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36047"/>
-    <s v="Kings County, NY"/>
-    <n v="364"/>
-    <n v="240"/>
-    <n v="124"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="85"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="364"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36055"/>
-    <s v="Monroe County, NY"/>
-    <n v="365"/>
-    <n v="270"/>
-    <n v="93"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="126"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="151"/>
-    <n v="214"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36059"/>
-    <s v="Nassau County, NY"/>
-    <n v="361"/>
-    <n v="303"/>
-    <n v="58"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="68"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="361"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36061"/>
-    <s v="New York County, NY"/>
-    <n v="365"/>
-    <n v="234"/>
-    <n v="130"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="140"/>
-    <n v="225"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36063"/>
-    <s v="Niagara County, NY"/>
-    <n v="358"/>
-    <n v="339"/>
-    <n v="18"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="133"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="358"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36065"/>
-    <s v="Oneida County, NY"/>
-    <n v="332"/>
-    <n v="288"/>
-    <n v="44"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="83"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="332"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36067"/>
-    <s v="Onondaga County, NY"/>
-    <n v="365"/>
-    <n v="316"/>
-    <n v="49"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="69"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="202"/>
-    <n v="163"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36071"/>
-    <s v="Orange County, NY"/>
-    <n v="363"/>
-    <n v="292"/>
-    <n v="71"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="73"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="102"/>
-    <n v="261"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36075"/>
-    <s v="Oswego County, NY"/>
-    <n v="354"/>
-    <n v="349"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="58"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="354"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36079"/>
-    <s v="Putnam County, NY"/>
-    <n v="333"/>
-    <n v="311"/>
-    <n v="22"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="333"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36081"/>
-    <s v="Queens County, NY"/>
-    <n v="365"/>
-    <n v="203"/>
-    <n v="159"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="126"/>
-    <n v="0"/>
-    <n v="14"/>
-    <n v="109"/>
-    <n v="242"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36085"/>
-    <s v="Richmond County, NY"/>
-    <n v="365"/>
-    <n v="278"/>
-    <n v="86"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="180"/>
-    <n v="185"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36087"/>
-    <s v="Rockland County, NY"/>
-    <n v="365"/>
-    <n v="315"/>
-    <n v="50"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="247"/>
-    <n v="118"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36091"/>
-    <s v="Saratoga County, NY"/>
-    <n v="362"/>
-    <n v="354"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="74"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="362"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36101"/>
-    <s v="Steuben County, NY"/>
-    <n v="365"/>
-    <n v="326"/>
-    <n v="39"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="71"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="210"/>
-    <n v="155"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36103"/>
-    <s v="Suffolk County, NY"/>
-    <n v="365"/>
-    <n v="272"/>
-    <n v="85"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="133"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="242"/>
-    <n v="123"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36109"/>
-    <s v="Tompkins County, NY"/>
-    <n v="361"/>
-    <n v="349"/>
-    <n v="12"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="67"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="361"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36117"/>
-    <s v="Wayne County, NY"/>
-    <n v="343"/>
-    <n v="333"/>
-    <n v="9"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="343"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="36119"/>
-    <s v="Westchester County, NY"/>
-    <n v="365"/>
-    <n v="300"/>
-    <n v="65"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="245"/>
-    <n v="120"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36001"/>
-    <s v="Albany County, NY"/>
-    <n v="365"/>
-    <n v="254"/>
-    <n v="109"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="118"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="139"/>
-    <n v="226"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36005"/>
-    <s v="Bronx County, NY"/>
-    <n v="365"/>
-    <n v="214"/>
-    <n v="143"/>
-    <n v="7"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="156"/>
-    <n v="0"/>
-    <n v="13"/>
-    <n v="104"/>
-    <n v="248"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36013"/>
-    <s v="Chautauqua County, NY"/>
-    <n v="361"/>
-    <n v="300"/>
-    <n v="60"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="318"/>
-    <n v="43"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36027"/>
-    <s v="Dutchess County, NY"/>
-    <n v="341"/>
-    <n v="323"/>
-    <n v="17"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="129"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="341"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36029"/>
-    <s v="Erie County, NY"/>
-    <n v="365"/>
-    <n v="225"/>
-    <n v="139"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="97"/>
-    <n v="266"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36031"/>
-    <s v="Essex County, NY"/>
-    <n v="365"/>
-    <n v="310"/>
-    <n v="54"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="336"/>
-    <n v="29"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36041"/>
-    <s v="Hamilton County, NY"/>
-    <n v="358"/>
-    <n v="343"/>
-    <n v="15"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="358"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36045"/>
-    <s v="Jefferson County, NY"/>
-    <n v="351"/>
-    <n v="332"/>
-    <n v="19"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="97"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="351"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36047"/>
-    <s v="Kings County, NY"/>
-    <n v="365"/>
-    <n v="233"/>
-    <n v="131"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="154"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36055"/>
-    <s v="Monroe County, NY"/>
-    <n v="365"/>
-    <n v="239"/>
-    <n v="126"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="128"/>
-    <n v="237"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36059"/>
-    <s v="Nassau County, NY"/>
-    <n v="360"/>
-    <n v="291"/>
-    <n v="68"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="118"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="360"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36061"/>
-    <s v="New York County, NY"/>
-    <n v="365"/>
-    <n v="245"/>
-    <n v="113"/>
-    <n v="6"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="155"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="143"/>
-    <n v="222"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36063"/>
-    <s v="Niagara County, NY"/>
-    <n v="357"/>
-    <n v="330"/>
-    <n v="26"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="357"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36065"/>
-    <s v="Oneida County, NY"/>
-    <n v="347"/>
-    <n v="311"/>
-    <n v="35"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="107"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="347"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36067"/>
-    <s v="Onondaga County, NY"/>
-    <n v="365"/>
-    <n v="279"/>
-    <n v="85"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="113"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="179"/>
-    <n v="186"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36071"/>
-    <s v="Orange County, NY"/>
-    <n v="364"/>
-    <n v="294"/>
-    <n v="69"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="149"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="200"/>
-    <n v="164"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36075"/>
-    <s v="Oswego County, NY"/>
-    <n v="360"/>
-    <n v="337"/>
-    <n v="23"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="97"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="360"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36079"/>
-    <s v="Putnam County, NY"/>
-    <n v="353"/>
-    <n v="334"/>
-    <n v="18"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="112"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="353"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36081"/>
-    <s v="Queens County, NY"/>
-    <n v="365"/>
-    <n v="215"/>
-    <n v="141"/>
-    <n v="8"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="154"/>
-    <n v="0"/>
-    <n v="11"/>
-    <n v="106"/>
-    <n v="248"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36085"/>
-    <s v="Richmond County, NY"/>
-    <n v="364"/>
-    <n v="264"/>
-    <n v="94"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="149"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="156"/>
-    <n v="208"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36087"/>
-    <s v="Rockland County, NY"/>
-    <n v="362"/>
-    <n v="314"/>
-    <n v="47"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="155"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="235"/>
-    <n v="127"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36091"/>
-    <s v="Saratoga County, NY"/>
-    <n v="354"/>
-    <n v="339"/>
-    <n v="15"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="354"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36101"/>
-    <s v="Steuben County, NY"/>
-    <n v="365"/>
-    <n v="285"/>
-    <n v="79"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="124"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="178"/>
-    <n v="187"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36103"/>
-    <s v="Suffolk County, NY"/>
-    <n v="365"/>
-    <n v="281"/>
-    <n v="73"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="154"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="243"/>
-    <n v="122"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36109"/>
-    <s v="Tompkins County, NY"/>
-    <n v="360"/>
-    <n v="334"/>
-    <n v="25"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="360"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36117"/>
-    <s v="Wayne County, NY"/>
-    <n v="354"/>
-    <n v="333"/>
-    <n v="21"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="354"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="36119"/>
-    <s v="Westchester County, NY"/>
-    <n v="365"/>
-    <n v="307"/>
-    <n v="52"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="143"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="256"/>
-    <n v="109"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36001"/>
-    <s v="Albany County, NY"/>
-    <n v="365"/>
-    <n v="235"/>
-    <n v="127"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="143"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="257"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36005"/>
-    <s v="Bronx County, NY"/>
-    <n v="366"/>
-    <n v="229"/>
-    <n v="136"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="0"/>
-    <n v="12"/>
-    <n v="120"/>
-    <n v="234"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36013"/>
-    <s v="Chautauqua County, NY"/>
-    <n v="363"/>
-    <n v="332"/>
-    <n v="31"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="336"/>
-    <n v="27"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36027"/>
-    <s v="Dutchess County, NY"/>
-    <n v="331"/>
-    <n v="322"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="87"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="331"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36029"/>
-    <s v="Erie County, NY"/>
-    <n v="366"/>
-    <n v="278"/>
-    <n v="86"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="157"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="148"/>
-    <n v="216"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36031"/>
-    <s v="Essex County, NY"/>
-    <n v="365"/>
-    <n v="344"/>
-    <n v="21"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="80"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="349"/>
-    <n v="16"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36041"/>
-    <s v="Hamilton County, NY"/>
-    <n v="357"/>
-    <n v="354"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="54"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="357"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36045"/>
-    <s v="Jefferson County, NY"/>
-    <n v="360"/>
-    <n v="345"/>
-    <n v="15"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="360"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36047"/>
-    <s v="Kings County, NY"/>
-    <n v="365"/>
-    <n v="300"/>
-    <n v="65"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="80"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36055"/>
-    <s v="Monroe County, NY"/>
-    <n v="366"/>
-    <n v="275"/>
-    <n v="91"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="81"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="159"/>
-    <n v="207"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36059"/>
-    <s v="Nassau County, NY"/>
-    <n v="361"/>
-    <n v="317"/>
-    <n v="44"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="75"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="361"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36061"/>
-    <s v="New York County, NY"/>
-    <n v="366"/>
-    <n v="258"/>
-    <n v="107"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="168"/>
-    <n v="196"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36063"/>
-    <s v="Niagara County, NY"/>
-    <n v="359"/>
-    <n v="340"/>
-    <n v="19"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="87"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="359"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36065"/>
-    <s v="Oneida County, NY"/>
-    <n v="349"/>
-    <n v="324"/>
-    <n v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="81"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="349"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36067"/>
-    <s v="Onondaga County, NY"/>
-    <n v="364"/>
-    <n v="300"/>
-    <n v="64"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="74"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="207"/>
-    <n v="157"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36071"/>
-    <s v="Orange County, NY"/>
-    <n v="366"/>
-    <n v="307"/>
-    <n v="59"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="97"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="200"/>
-    <n v="166"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36075"/>
-    <s v="Oswego County, NY"/>
-    <n v="359"/>
-    <n v="349"/>
-    <n v="10"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="58"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="359"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36079"/>
-    <s v="Putnam County, NY"/>
-    <n v="314"/>
-    <n v="308"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="64"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="314"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36081"/>
-    <s v="Queens County, NY"/>
-    <n v="366"/>
-    <n v="258"/>
-    <n v="105"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="140"/>
-    <n v="0"/>
-    <n v="23"/>
-    <n v="168"/>
-    <n v="175"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36085"/>
-    <s v="Richmond County, NY"/>
-    <n v="364"/>
-    <n v="280"/>
-    <n v="82"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="169"/>
-    <n v="195"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36087"/>
-    <s v="Rockland County, NY"/>
-    <n v="366"/>
-    <n v="319"/>
-    <n v="47"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="243"/>
-    <n v="123"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36091"/>
-    <s v="Saratoga County, NY"/>
-    <n v="319"/>
-    <n v="315"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="61"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="319"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36101"/>
-    <s v="Steuben County, NY"/>
-    <n v="365"/>
-    <n v="330"/>
-    <n v="35"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="81"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="245"/>
-    <n v="120"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36103"/>
-    <s v="Suffolk County, NY"/>
-    <n v="366"/>
-    <n v="282"/>
-    <n v="78"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="133"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="243"/>
-    <n v="123"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36109"/>
-    <s v="Tompkins County, NY"/>
-    <n v="364"/>
-    <n v="359"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="64"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="364"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36117"/>
-    <s v="Wayne County, NY"/>
-    <n v="327"/>
-    <n v="305"/>
-    <n v="22"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="80"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="327"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="36119"/>
-    <s v="Westchester County, NY"/>
-    <n v="363"/>
-    <n v="305"/>
-    <n v="57"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="246"/>
-    <n v="117"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36001"/>
-    <s v="Albany County, NY"/>
-    <n v="365"/>
-    <n v="276"/>
-    <n v="89"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="138"/>
-    <n v="227"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36005"/>
-    <s v="Bronx County, NY"/>
-    <n v="365"/>
-    <n v="212"/>
-    <n v="150"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="115"/>
-    <n v="0"/>
-    <n v="24"/>
-    <n v="110"/>
-    <n v="231"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36013"/>
-    <s v="Chautauqua County, NY"/>
-    <n v="343"/>
-    <n v="302"/>
-    <n v="40"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="300"/>
-    <n v="43"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36027"/>
-    <s v="Dutchess County, NY"/>
-    <n v="331"/>
-    <n v="319"/>
-    <n v="12"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="331"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36029"/>
-    <s v="Erie County, NY"/>
-    <n v="365"/>
-    <n v="262"/>
-    <n v="103"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="123"/>
-    <n v="232"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36031"/>
-    <s v="Essex County, NY"/>
-    <n v="364"/>
-    <n v="327"/>
-    <n v="37"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="80"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="357"/>
-    <n v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36041"/>
-    <s v="Hamilton County, NY"/>
-    <n v="323"/>
-    <n v="321"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="54"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="323"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36045"/>
-    <s v="Jefferson County, NY"/>
-    <n v="205"/>
-    <n v="198"/>
-    <n v="7"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="64"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="205"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36047"/>
-    <s v="Kings County, NY"/>
-    <n v="365"/>
-    <n v="280"/>
-    <n v="85"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="78"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36055"/>
-    <s v="Monroe County, NY"/>
-    <n v="365"/>
-    <n v="272"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="131"/>
-    <n v="234"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36059"/>
-    <s v="Nassau County, NY"/>
-    <n v="360"/>
-    <n v="308"/>
-    <n v="52"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="72"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="360"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36061"/>
-    <s v="New York County, NY"/>
-    <n v="365"/>
-    <n v="219"/>
-    <n v="144"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="136"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="118"/>
-    <n v="247"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36063"/>
-    <s v="Niagara County, NY"/>
-    <n v="352"/>
-    <n v="339"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="80"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="352"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36065"/>
-    <s v="Oneida County, NY"/>
-    <n v="355"/>
-    <n v="331"/>
-    <n v="24"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="64"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="355"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36067"/>
-    <s v="Onondaga County, NY"/>
-    <n v="365"/>
-    <n v="301"/>
-    <n v="64"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="77"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="209"/>
-    <n v="156"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36071"/>
-    <s v="Orange County, NY"/>
-    <n v="365"/>
-    <n v="307"/>
-    <n v="58"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="74"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="195"/>
-    <n v="170"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36075"/>
-    <s v="Oswego County, NY"/>
-    <n v="321"/>
-    <n v="316"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="67"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="321"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36079"/>
-    <s v="Putnam County, NY"/>
-    <n v="329"/>
-    <n v="313"/>
-    <n v="15"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="329"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36081"/>
-    <s v="Queens County, NY"/>
-    <n v="365"/>
-    <n v="234"/>
-    <n v="127"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="119"/>
-    <n v="0"/>
-    <n v="40"/>
-    <n v="135"/>
-    <n v="190"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36085"/>
-    <s v="Richmond County, NY"/>
-    <n v="365"/>
-    <n v="275"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="97"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="172"/>
-    <n v="193"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36087"/>
-    <s v="Rockland County, NY"/>
-    <n v="365"/>
-    <n v="314"/>
-    <n v="50"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="112"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="260"/>
-    <n v="105"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36091"/>
-    <s v="Saratoga County, NY"/>
-    <n v="331"/>
-    <n v="328"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="58"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="331"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36101"/>
-    <s v="Steuben County, NY"/>
-    <n v="365"/>
-    <n v="315"/>
-    <n v="50"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="69"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="196"/>
-    <n v="169"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36103"/>
-    <s v="Suffolk County, NY"/>
-    <n v="365"/>
-    <n v="276"/>
-    <n v="80"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="150"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="255"/>
-    <n v="110"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36109"/>
-    <s v="Tompkins County, NY"/>
-    <n v="356"/>
-    <n v="349"/>
-    <n v="7"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="61"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="356"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36117"/>
-    <s v="Wayne County, NY"/>
-    <n v="268"/>
-    <n v="253"/>
-    <n v="15"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="268"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="36119"/>
-    <s v="Westchester County, NY"/>
-    <n v="365"/>
-    <n v="309"/>
-    <n v="55"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="255"/>
-    <n v="110"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36001"/>
-    <s v="Albany County, NY"/>
-    <n v="365"/>
-    <n v="250"/>
-    <n v="113"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="112"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="137"/>
-    <n v="228"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36005"/>
-    <s v="Bronx County, NY"/>
-    <n v="365"/>
-    <n v="229"/>
-    <n v="127"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="150"/>
-    <n v="0"/>
-    <n v="47"/>
-    <n v="139"/>
-    <n v="179"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36013"/>
-    <s v="Chautauqua County, NY"/>
-    <n v="358"/>
-    <n v="300"/>
-    <n v="54"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="126"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="321"/>
-    <n v="37"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36027"/>
-    <s v="Dutchess County, NY"/>
-    <n v="349"/>
-    <n v="327"/>
-    <n v="20"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="156"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="349"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36029"/>
-    <s v="Erie County, NY"/>
-    <n v="365"/>
-    <n v="220"/>
-    <n v="143"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="112"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="117"/>
-    <n v="244"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36031"/>
-    <s v="Essex County, NY"/>
-    <n v="365"/>
-    <n v="317"/>
-    <n v="46"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="348"/>
-    <n v="17"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36041"/>
-    <s v="Hamilton County, NY"/>
-    <n v="352"/>
-    <n v="341"/>
-    <n v="11"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="97"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="352"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36045"/>
-    <s v="Jefferson County, NY"/>
-    <n v="329"/>
-    <n v="307"/>
-    <n v="20"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="329"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36047"/>
-    <s v="Kings County, NY"/>
-    <n v="365"/>
-    <n v="271"/>
-    <n v="94"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="82"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36055"/>
-    <s v="Monroe County, NY"/>
-    <n v="365"/>
-    <n v="248"/>
-    <n v="113"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="108"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="135"/>
-    <n v="230"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36059"/>
-    <s v="Nassau County, NY"/>
-    <n v="365"/>
-    <n v="305"/>
-    <n v="60"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="365"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36061"/>
-    <s v="New York County, NY"/>
-    <n v="365"/>
-    <n v="176"/>
-    <n v="178"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="151"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="81"/>
-    <n v="284"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36063"/>
-    <s v="Niagara County, NY"/>
-    <n v="320"/>
-    <n v="294"/>
-    <n v="25"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="320"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36065"/>
-    <s v="Oneida County, NY"/>
-    <n v="364"/>
-    <n v="311"/>
-    <n v="53"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="74"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="364"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36067"/>
-    <s v="Onondaga County, NY"/>
-    <n v="364"/>
-    <n v="297"/>
-    <n v="65"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="115"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="256"/>
-    <n v="108"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36071"/>
-    <s v="Orange County, NY"/>
-    <n v="365"/>
-    <n v="279"/>
-    <n v="85"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="147"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="197"/>
-    <n v="168"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36075"/>
-    <s v="Oswego County, NY"/>
-    <n v="350"/>
-    <n v="324"/>
-    <n v="25"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="112"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="350"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36079"/>
-    <s v="Putnam County, NY"/>
-    <n v="337"/>
-    <n v="317"/>
-    <n v="18"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="151"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="337"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36081"/>
-    <s v="Queens County, NY"/>
-    <n v="365"/>
-    <n v="229"/>
-    <n v="128"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="140"/>
-    <n v="0"/>
-    <n v="26"/>
-    <n v="116"/>
-    <n v="223"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36085"/>
-    <s v="Richmond County, NY"/>
-    <n v="363"/>
-    <n v="229"/>
-    <n v="128"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="136"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="96"/>
-    <n v="267"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36087"/>
-    <s v="Rockland County, NY"/>
-    <n v="365"/>
-    <n v="301"/>
-    <n v="58"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="210"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="247"/>
-    <n v="118"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36091"/>
-    <s v="Saratoga County, NY"/>
-    <n v="361"/>
-    <n v="341"/>
-    <n v="19"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="119"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="361"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36101"/>
-    <s v="Steuben County, NY"/>
-    <n v="363"/>
-    <n v="313"/>
-    <n v="50"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="87"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="258"/>
-    <n v="102"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36103"/>
-    <s v="Suffolk County, NY"/>
-    <n v="365"/>
-    <n v="254"/>
-    <n v="100"/>
-    <n v="10"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="172"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="215"/>
-    <n v="150"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36109"/>
-    <s v="Tompkins County, NY"/>
-    <n v="360"/>
-    <n v="332"/>
-    <n v="27"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="360"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36117"/>
-    <s v="Wayne County, NY"/>
-    <n v="239"/>
-    <n v="210"/>
-    <n v="25"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="115"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="239"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="36119"/>
-    <s v="Westchester County, NY"/>
-    <n v="365"/>
-    <n v="295"/>
-    <n v="58"/>
-    <n v="11"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="169"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="250"/>
-    <n v="115"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6407C98C-BB77-4124-932A-C37131EB19D8}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Promedio de AQI Maximum" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4149,9 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E82327-2926-4281-91F0-FF215CEC55FC}">
   <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4163,10 +1075,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -4178,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -4199,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -11830,411 +8742,172 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:G17"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A694E8-6C99-4CFC-A534-1B3016B62F76}">
-  <dimension ref="A3:B55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B4">
-        <v>124.03703703703704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B5">
-        <v>88.666666666666671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B6">
-        <v>91.925925925925924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
-        <v>122.11111111111111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B8">
-        <v>96.777777777777771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B9">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10">
-        <v>116.25308641975309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>